--- a/Label Printing Plan.xlsx
+++ b/Label Printing Plan.xlsx
@@ -12,71 +12,99 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Collect Label Name from Screen</t>
-  </si>
-  <si>
-    <t>Load Label Data into String</t>
-  </si>
-  <si>
-    <t>collectLabelDetails as string</t>
-  </si>
-  <si>
-    <t>PrintRoutine</t>
-  </si>
-  <si>
-    <t>Send for label Data</t>
-  </si>
-  <si>
-    <t>Decide Text or Colour Label</t>
-  </si>
-  <si>
-    <t>Decide Which Queue is Sending</t>
-  </si>
-  <si>
-    <t>Call Text Routine or Colour Routine</t>
-  </si>
-  <si>
-    <t>textPrintingRoutine</t>
-  </si>
-  <si>
-    <t>colourPrintingRoutine</t>
-  </si>
-  <si>
-    <t>Call print dialog to allow printer change</t>
-  </si>
-  <si>
-    <t>get printer details</t>
-  </si>
-  <si>
-    <t>create a label</t>
-  </si>
-  <si>
-    <t>print n times</t>
-  </si>
-  <si>
-    <t>get the next label from the queue</t>
-  </si>
-  <si>
-    <t>delete label from queue</t>
-  </si>
-  <si>
-    <t>reapeat</t>
-  </si>
-  <si>
-    <t>get number of lines from queue</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>Manual Entry</t>
+  </si>
+  <si>
+    <t>Database Entry</t>
+  </si>
+  <si>
+    <t>LabelPreview</t>
+  </si>
+  <si>
+    <t>AutoLabel</t>
+  </si>
+  <si>
+    <t>Label Profiles</t>
+  </si>
+  <si>
+    <t>Queue Utilities</t>
+  </si>
+  <si>
+    <t>Quick Print</t>
+  </si>
+  <si>
+    <t>Update Line</t>
+  </si>
+  <si>
+    <t>Delete Line</t>
+  </si>
+  <si>
+    <t>Connect Print buttons</t>
+  </si>
+  <si>
+    <t>TempMakeLabel</t>
+  </si>
+  <si>
+    <t>centre labels ?</t>
+  </si>
+  <si>
+    <t>Create New Profile</t>
+  </si>
+  <si>
+    <t>Attach profile</t>
+  </si>
+  <si>
+    <t>Preview Profile</t>
+  </si>
+  <si>
+    <t>Alter Profile</t>
+  </si>
+  <si>
+    <t>Change Database Id style</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Update entry</t>
+  </si>
+  <si>
+    <t>Delete Entry</t>
+  </si>
+  <si>
+    <t>Add Entry</t>
+  </si>
+  <si>
+    <t>Validate Data</t>
+  </si>
+  <si>
+    <t>Change profile ?</t>
+  </si>
+  <si>
+    <t>Correct Database</t>
+  </si>
+  <si>
+    <t>Print Routine</t>
+  </si>
+  <si>
+    <t>Printer and Paper Tray</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +112,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -101,12 +179,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,106 +586,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D32"/>
+  <dimension ref="D2:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="2" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:30" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="20"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="6"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>0</v>
+    <row r="5" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>1</v>
+    <row r="6" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
+    <row r="7" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>4</v>
+    <row r="8" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>5</v>
+    <row r="9" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D9" t="e">
+        <f>+ Buttons</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>9</v>
+    <row r="10" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Label Printing Plan.xlsx
+++ b/Label Printing Plan.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Manual Entry</t>
   </si>
@@ -98,13 +97,16 @@
   </si>
   <si>
     <t>Printer and Paper Tray</t>
+  </si>
+  <si>
+    <t>+ Buttons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +118,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -285,6 +294,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +600,7 @@
   <dimension ref="D2:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +663,7 @@
       <c r="P5" t="s">
         <v>12</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="V5" t="s">
@@ -678,7 +689,7 @@
       <c r="P6" t="s">
         <v>13</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -708,9 +719,8 @@
       </c>
     </row>
     <row r="9" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="D9" t="e">
-        <f>+ Buttons</f>
-        <v>#NAME?</v>
+      <c r="D9" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="P9" t="s">
         <v>16</v>

--- a/Label Printing Plan.xlsx
+++ b/Label Printing Plan.xlsx
@@ -234,68 +234,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,70 +600,70 @@
   <dimension ref="D2:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:30" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16" t="s">
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="2" t="s">
+      <c r="T3" s="22"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="4" t="s">
+      <c r="W3" s="4"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="4" t="s">
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="6"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="8"/>
     </row>
     <row r="5" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="V5" t="s">
@@ -677,7 +677,7 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
@@ -689,12 +689,12 @@
       <c r="P6" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
@@ -703,7 +703,7 @@
       <c r="P7" t="s">
         <v>14</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P8" t="s">
@@ -719,7 +719,7 @@
       </c>
     </row>
     <row r="9" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P9" t="s">
